--- a/Silvicultura/18.1.xlsx
+++ b/Silvicultura/18.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\Tablas Madre\Silvicultura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{A7C6D978-5F0E-4688-B1DD-5CA7E0EF5C00}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D028CDE3-4FF0-4021-ABE5-67BDFCC74C41}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plantaciones Anuales" sheetId="7" r:id="rId1"/>
@@ -25,11 +25,11 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" keepAlive="1" name="Consulta - Plantacion_Anual" description="Conexión a la consulta 'Plantacion_Anual' en el libro." type="5" refreshedVersion="7" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" keepAlive="1" name="Consulta - Plantacion_Anual" description="Conexión a la consulta 'Plantacion_Anual' en el libro." type="5" refreshedVersion="7" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=Plantacion_Anual;Extended Properties=&quot;&quot;" command="SELECT * FROM [Plantacion_Anual]"/>
   </connection>
-  <connection id="2" keepAlive="1" name="Consulta - Plantacion_Anual (2)" description="Conexión a la consulta 'Plantacion_Anual (2)' en el libro." type="5" refreshedVersion="7" background="1" saveData="1">
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" keepAlive="1" name="Consulta - Plantacion_Anual (2)" description="Conexión a la consulta 'Plantacion_Anual (2)' en el libro." type="5" refreshedVersion="7" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=&quot;Plantacion_Anual (2)&quot;;Extended Properties=&quot;&quot;" command="SELECT * FROM [Plantacion_Anual (2)]"/>
   </connection>
 </connections>
@@ -176,13 +176,13 @@
     <t>plantacion forestal, forestal, superficie plantada, silvicultura</t>
   </si>
   <si>
-    <t>Superficie forestal plantada en hectárea, por regióno y por año. El período de los catastros va desde 2008 a 2019.</t>
+    <t>Superficie forestal plantada en hectárea, por región y por año. El período de los catastros va desde 2008 a 2019.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -732,46 +732,46 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Plantaciones_Anuales" displayName="Plantaciones_Anuales" ref="A1:O12" totalsRowShown="0">
-  <autoFilter ref="A1:O12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Plantaciones_Anuales" displayName="Plantaciones_Anuales" ref="A1:O12" totalsRowShown="0">
+  <autoFilter ref="A1:O12" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="15">
-    <tableColumn id="1" name="Id_auxiliar"/>
-    <tableColumn id="2" name="Código_Región"/>
-    <tableColumn id="3" name="Región"/>
-    <tableColumn id="4" name="2008"/>
-    <tableColumn id="5" name="2009"/>
-    <tableColumn id="6" name="2010"/>
-    <tableColumn id="7" name="2011"/>
-    <tableColumn id="8" name="2012"/>
-    <tableColumn id="9" name="2013"/>
-    <tableColumn id="10" name="2014"/>
-    <tableColumn id="11" name="2015"/>
-    <tableColumn id="12" name="2016"/>
-    <tableColumn id="13" name="2017"/>
-    <tableColumn id="14" name="2018"/>
-    <tableColumn id="15" name="2019"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id_auxiliar"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Código_Región"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Región"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="2008"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="2009"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="2010"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="2011"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="2012"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="2013"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="2014"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="2015"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="2016"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="2017"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="2018"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="2019"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Plantaciones_Anuales_auxiliar" displayName="Plantaciones_Anuales_auxiliar" ref="A1:M2" totalsRowShown="0">
-  <autoFilter ref="A1:M2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Plantaciones_Anuales_auxiliar" displayName="Plantaciones_Anuales_auxiliar" ref="A1:M2" totalsRowShown="0">
+  <autoFilter ref="A1:M2" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="Id_auxiliar"/>
-    <tableColumn id="2" name="Parámetro"/>
-    <tableColumn id="3" name="Detalle"/>
-    <tableColumn id="4" name="Territorio"/>
-    <tableColumn id="5" name="Temporalidad"/>
-    <tableColumn id="6" name="Título"/>
-    <tableColumn id="7" name="Tags"/>
-    <tableColumn id="8" name="ISO país"/>
-    <tableColumn id="9" name="Nivel administrativo"/>
-    <tableColumn id="10" name="Descripción larga"/>
-    <tableColumn id="11" name="Fecha" dataDxfId="0"/>
-    <tableColumn id="12" name="Unidad"/>
-    <tableColumn id="13" name="Responsable"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Id_auxiliar"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Parámetro"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Detalle"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Territorio"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Temporalidad"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Título"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Tags"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="ISO país"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Nivel administrativo"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Descripción larga"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Fecha" dataDxfId="0"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Unidad"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="Responsable"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1073,7 +1073,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1662,11 +1662,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Silvicultura/18.1.xlsx
+++ b/Silvicultura/18.1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\Tablas Madre\Silvicultura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D028CDE3-4FF0-4021-ABE5-67BDFCC74C41}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE3ACCF9-4350-446E-8FEF-30F8E8B49AA2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="85">
   <si>
     <t>Región</t>
   </si>
@@ -176,14 +176,128 @@
     <t>plantacion forestal, forestal, superficie plantada, silvicultura</t>
   </si>
   <si>
-    <t>Superficie forestal plantada en hectárea, por región y por año. El período de los catastros va desde 2008 a 2019.</t>
+    <t>1996</t>
+  </si>
+  <si>
+    <t>1997</t>
+  </si>
+  <si>
+    <t>1998</t>
+  </si>
+  <si>
+    <t>1999</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>1983</t>
+  </si>
+  <si>
+    <t>1984</t>
+  </si>
+  <si>
+    <t>1985</t>
+  </si>
+  <si>
+    <t>1986</t>
+  </si>
+  <si>
+    <t>1987</t>
+  </si>
+  <si>
+    <t>1988</t>
+  </si>
+  <si>
+    <t>1989</t>
+  </si>
+  <si>
+    <t>1990</t>
+  </si>
+  <si>
+    <t>1991</t>
+  </si>
+  <si>
+    <t>1992</t>
+  </si>
+  <si>
+    <t>1993</t>
+  </si>
+  <si>
+    <t>1994</t>
+  </si>
+  <si>
+    <t>1995</t>
+  </si>
+  <si>
+    <t>1977</t>
+  </si>
+  <si>
+    <t>1978</t>
+  </si>
+  <si>
+    <t>1979</t>
+  </si>
+  <si>
+    <t>1980</t>
+  </si>
+  <si>
+    <t>1981</t>
+  </si>
+  <si>
+    <t>1982</t>
+  </si>
+  <si>
+    <t>1975</t>
+  </si>
+  <si>
+    <t>1976</t>
+  </si>
+  <si>
+    <t>Arica y Parinacota</t>
+  </si>
+  <si>
+    <t>Tarapacá</t>
+  </si>
+  <si>
+    <t>Antofagasta</t>
+  </si>
+  <si>
+    <t>Atacama</t>
+  </si>
+  <si>
+    <t>Coquimbo</t>
+  </si>
+  <si>
+    <t>Superficie forestal plantada en hectárea, por región y por año. El período de los catastros va desde 1975 a 2019.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -323,6 +437,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -622,7 +742,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -665,12 +785,14 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -705,6 +827,7 @@
     <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="42" xr:uid="{D0C8996C-E3A9-4D0C-9DA0-FD4B4FFE034F}"/>
     <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
@@ -714,7 +837,43 @@
     <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="13">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
@@ -732,24 +891,57 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Plantaciones_Anuales" displayName="Plantaciones_Anuales" ref="A1:O12" totalsRowShown="0">
-  <autoFilter ref="A1:O12" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
-  <tableColumns count="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Plantaciones_Anuales" displayName="Plantaciones_Anuales" ref="A1:AV17" totalsRowShown="0">
+  <autoFilter ref="A1:AV17" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+  <tableColumns count="48">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id_auxiliar"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Código_Región"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Región"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="2008"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="2009"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="2010"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="2011"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="2012"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="2013"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="2014"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="2015"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="2016"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="2017"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="2018"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="2019"/>
+    <tableColumn id="47" xr3:uid="{2BCF0CE5-76AF-4395-B779-A5143E79A961}" name="1975"/>
+    <tableColumn id="48" xr3:uid="{123CA553-F1B3-484F-812A-7E3B6E2D9F41}" name="1976"/>
+    <tableColumn id="41" xr3:uid="{CD2FBA9E-A3AC-4049-9191-6949F298C1CC}" name="1977"/>
+    <tableColumn id="42" xr3:uid="{BF67BBF7-9D25-4BFA-80F7-892F8E5C30A4}" name="1978"/>
+    <tableColumn id="43" xr3:uid="{49B0AAE1-296B-479F-AF47-120D42EF1CBA}" name="1979"/>
+    <tableColumn id="44" xr3:uid="{0EC93282-214D-4FE7-B86D-2FD45B02155A}" name="1980"/>
+    <tableColumn id="45" xr3:uid="{EEA86B33-BAFC-4BD3-8BBB-52DC07E5C275}" name="1981"/>
+    <tableColumn id="46" xr3:uid="{CAF8DCA7-37A1-4B70-9D7A-576C6B52BEDB}" name="1982"/>
+    <tableColumn id="28" xr3:uid="{1541CB5B-771B-403C-A37E-4CEB0DF3CFA1}" name="1983"/>
+    <tableColumn id="29" xr3:uid="{68CC9E29-7E7C-49B5-8182-E03FFB44A7D7}" name="1984"/>
+    <tableColumn id="30" xr3:uid="{1D58801E-C29E-4F66-B027-32C125457857}" name="1985"/>
+    <tableColumn id="31" xr3:uid="{49FF37D3-27A5-41EE-A131-7943339EC44A}" name="1986"/>
+    <tableColumn id="32" xr3:uid="{5D24DECB-99F2-44FE-A5A4-DD49244825CF}" name="1987"/>
+    <tableColumn id="33" xr3:uid="{E9091F93-461F-486C-BB5B-8F2AE0976757}" name="1988"/>
+    <tableColumn id="34" xr3:uid="{1CDC58E8-E856-400C-B7E0-DD8EEF990F82}" name="1989"/>
+    <tableColumn id="35" xr3:uid="{DF4E2DA6-6F96-4C67-9B67-9EA23A661FE2}" name="1990"/>
+    <tableColumn id="36" xr3:uid="{C94EFD11-89C8-4B1E-87F9-8B18219A13EC}" name="1991"/>
+    <tableColumn id="37" xr3:uid="{D23A376C-AA6B-4107-AB24-5B6B3DCF4BE4}" name="1992"/>
+    <tableColumn id="38" xr3:uid="{7078FD43-29D1-429D-BD10-1FB52462A267}" name="1993"/>
+    <tableColumn id="39" xr3:uid="{9198A70C-F245-46C9-8991-E19A7BB0B8FC}" name="1994"/>
+    <tableColumn id="40" xr3:uid="{F18477D6-A944-46B7-B864-819732EB9DFC}" name="1995"/>
+    <tableColumn id="16" xr3:uid="{3E304951-9CEB-4D1C-BFA8-DFFC527C1EA0}" name="1996"/>
+    <tableColumn id="17" xr3:uid="{8CD20CA9-65BD-4B4E-BAD4-F03E76776C4B}" name="1997"/>
+    <tableColumn id="18" xr3:uid="{FE72BFE5-C1EC-4965-8C9D-2ACF182EB59F}" name="1998"/>
+    <tableColumn id="19" xr3:uid="{A3283F60-0377-4D46-95E5-94BA400C4C90}" name="1999"/>
+    <tableColumn id="20" xr3:uid="{B2D28190-299B-43ED-A24E-4EF13D8A4B02}" name="2000"/>
+    <tableColumn id="21" xr3:uid="{82744F3F-E539-450A-8873-F133099AC03C}" name="2001"/>
+    <tableColumn id="22" xr3:uid="{8E7DC071-BA67-4C99-AF1A-CBBA39889D2D}" name="2002"/>
+    <tableColumn id="23" xr3:uid="{4E59B2A8-2218-438A-BC1F-64DB27202EFA}" name="2003"/>
+    <tableColumn id="24" xr3:uid="{7C83C72B-BE5E-4505-82B0-A1FA88661FA3}" name="2004"/>
+    <tableColumn id="25" xr3:uid="{5436B041-7067-4099-929A-4237FBF837E7}" name="2005"/>
+    <tableColumn id="26" xr3:uid="{165683F2-847D-4760-9077-E14AF5BED7B3}" name="2006"/>
+    <tableColumn id="27" xr3:uid="{829CA16C-AB0A-4148-B633-2D6C2CCF6370}" name="2007"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="2008" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="2009" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="2010" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="2011" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="2012" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="2013" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="2014" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="2015" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="2016" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="2017" dataDxfId="2"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="2018" dataDxfId="1"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="2019" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -769,7 +961,7 @@
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="ISO país"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Nivel administrativo"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Descripción larga"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Fecha" dataDxfId="0"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Fecha" dataDxfId="12"/>
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Unidad"/>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="Responsable"/>
   </tableColumns>
@@ -1074,10 +1266,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:AV17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="AQ7" sqref="AQ7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1085,10 +1277,10 @@
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="15" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="48" width="7.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1099,557 +1291,2475 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R1" t="s">
+        <v>64</v>
+      </c>
+      <c r="S1" t="s">
+        <v>65</v>
+      </c>
+      <c r="T1" t="s">
+        <v>66</v>
+      </c>
+      <c r="U1" t="s">
+        <v>67</v>
+      </c>
+      <c r="V1" t="s">
+        <v>68</v>
+      </c>
+      <c r="W1" t="s">
+        <v>69</v>
+      </c>
+      <c r="X1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="AL1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+      <c r="AM1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" t="s">
+      <c r="AN1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" t="s">
+      <c r="AO1" t="s">
         <v>18</v>
       </c>
-      <c r="I1" t="s">
+      <c r="AP1" t="s">
         <v>19</v>
       </c>
-      <c r="J1" t="s">
+      <c r="AQ1" t="s">
         <v>20</v>
       </c>
-      <c r="K1" t="s">
+      <c r="AR1" t="s">
         <v>21</v>
       </c>
-      <c r="L1" t="s">
+      <c r="AS1" t="s">
         <v>22</v>
       </c>
-      <c r="M1" t="s">
+      <c r="AT1" t="s">
         <v>23</v>
       </c>
-      <c r="N1" t="s">
+      <c r="AU1" t="s">
         <v>24</v>
       </c>
-      <c r="O1" t="s">
+      <c r="AV1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>30</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>50</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>181</v>
+      </c>
+      <c r="M2">
+        <v>325</v>
+      </c>
+      <c r="N2">
+        <v>391</v>
+      </c>
+      <c r="O2">
+        <v>38</v>
+      </c>
+      <c r="P2">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="Q2">
+        <v>20</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>19</v>
+      </c>
+      <c r="V2">
+        <v>31</v>
+      </c>
+      <c r="W2">
+        <v>227</v>
+      </c>
+      <c r="X2">
+        <v>20</v>
+      </c>
+      <c r="Y2">
+        <v>33</v>
+      </c>
+      <c r="Z2">
+        <v>44</v>
+      </c>
+      <c r="AA2">
+        <v>22</v>
+      </c>
+      <c r="AB2">
+        <v>33</v>
+      </c>
+      <c r="AC2">
+        <v>21</v>
+      </c>
+      <c r="AD2">
+        <v>94</v>
+      </c>
+      <c r="AE2">
+        <v>27</v>
+      </c>
+      <c r="AF2">
+        <v>42</v>
+      </c>
+      <c r="AG2">
+        <v>65</v>
+      </c>
+      <c r="AH2">
+        <v>42</v>
+      </c>
+      <c r="AI2">
+        <v>29</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="2">
         <v>2</v>
       </c>
-      <c r="D2">
-        <v>1.0429999999999999</v>
-      </c>
-      <c r="E2">
-        <v>1.577</v>
-      </c>
-      <c r="F2">
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="G2">
-        <v>500</v>
-      </c>
-      <c r="H2">
-        <v>1.6120000000000001</v>
-      </c>
-      <c r="I2">
-        <v>2.169</v>
-      </c>
-      <c r="J2">
-        <v>2.3079999999999998</v>
-      </c>
-      <c r="K2">
-        <v>169</v>
-      </c>
-      <c r="L2">
-        <v>1.087</v>
-      </c>
-      <c r="M2">
-        <v>162</v>
-      </c>
-      <c r="N2">
-        <v>67</v>
-      </c>
-      <c r="O2">
-        <v>197</v>
+      <c r="AL2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM2" s="2">
+        <v>6</v>
+      </c>
+      <c r="AN2" s="2">
+        <v>5</v>
+      </c>
+      <c r="AO2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS2" s="2">
+        <v>5</v>
+      </c>
+      <c r="AT2" s="2">
+        <v>5</v>
+      </c>
+      <c r="AU2" s="2">
+        <v>7</v>
+      </c>
+      <c r="AV2" s="2">
+        <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="D3">
-        <v>3.399</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>4.4260000000000002</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>7.6680000000000001</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>6.3540000000000001</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>4.9950000000000001</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1.978</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>4.3220000000000001</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>1.841</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>2.5419999999999998</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>2.1909999999999998</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1.3080000000000001</v>
+        <v>37</v>
       </c>
       <c r="O3">
-        <v>3.5870000000000002</v>
+        <v>15</v>
+      </c>
+      <c r="P3">
+        <v>3</v>
+      </c>
+      <c r="Q3">
+        <v>9</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>20</v>
+      </c>
+      <c r="W3">
+        <v>23</v>
+      </c>
+      <c r="X3">
+        <v>17</v>
+      </c>
+      <c r="Y3">
+        <v>24</v>
+      </c>
+      <c r="Z3">
+        <v>53</v>
+      </c>
+      <c r="AA3">
+        <v>75</v>
+      </c>
+      <c r="AB3">
+        <v>31</v>
+      </c>
+      <c r="AC3">
+        <v>29</v>
+      </c>
+      <c r="AD3">
+        <v>85</v>
+      </c>
+      <c r="AE3">
+        <v>80</v>
+      </c>
+      <c r="AF3">
+        <v>52</v>
+      </c>
+      <c r="AG3">
+        <v>67</v>
+      </c>
+      <c r="AH3">
+        <v>73</v>
+      </c>
+      <c r="AI3">
+        <v>41</v>
+      </c>
+      <c r="AJ3">
+        <v>52</v>
+      </c>
+      <c r="AK3" s="2">
+        <v>60</v>
+      </c>
+      <c r="AL3" s="2">
+        <v>31</v>
+      </c>
+      <c r="AM3" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN3" s="2">
+        <v>26</v>
+      </c>
+      <c r="AO3" s="2">
+        <v>26</v>
+      </c>
+      <c r="AP3" s="2">
+        <v>20</v>
+      </c>
+      <c r="AQ3" s="2">
+        <v>20</v>
+      </c>
+      <c r="AR3" s="2">
+        <v>20</v>
+      </c>
+      <c r="AS3" s="2">
+        <v>20</v>
+      </c>
+      <c r="AT3" s="2">
+        <v>21</v>
+      </c>
+      <c r="AU3" s="2">
+        <v>20</v>
+      </c>
+      <c r="AV3" s="2">
+        <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>25</v>
+      </c>
+      <c r="L4">
+        <v>165</v>
+      </c>
+      <c r="M4">
+        <v>82</v>
+      </c>
+      <c r="N4">
+        <v>101</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
         <v>6</v>
       </c>
-      <c r="D4">
-        <v>23.376999999999999</v>
-      </c>
-      <c r="E4">
-        <v>17.606999999999999</v>
-      </c>
-      <c r="F4">
-        <v>17.123999999999999</v>
-      </c>
-      <c r="G4">
-        <v>18.661000000000001</v>
-      </c>
-      <c r="H4">
-        <v>19.449000000000002</v>
-      </c>
-      <c r="I4">
-        <v>18.155000000000001</v>
-      </c>
-      <c r="J4">
-        <v>17.553000000000001</v>
-      </c>
-      <c r="K4">
-        <v>15.167999999999999</v>
-      </c>
-      <c r="L4">
-        <v>17.945</v>
-      </c>
-      <c r="M4">
-        <v>21.704999999999998</v>
-      </c>
-      <c r="N4">
-        <v>25.853999999999999</v>
-      </c>
-      <c r="O4">
-        <v>38.691000000000003</v>
+      <c r="Q4">
+        <v>8</v>
+      </c>
+      <c r="R4">
+        <v>13</v>
+      </c>
+      <c r="S4">
+        <v>125</v>
+      </c>
+      <c r="T4">
+        <v>78</v>
+      </c>
+      <c r="U4">
+        <v>164</v>
+      </c>
+      <c r="V4">
+        <v>131</v>
+      </c>
+      <c r="W4">
+        <v>124</v>
+      </c>
+      <c r="X4">
+        <v>121</v>
+      </c>
+      <c r="Y4">
+        <v>99</v>
+      </c>
+      <c r="Z4">
+        <v>42</v>
+      </c>
+      <c r="AA4">
+        <v>154</v>
+      </c>
+      <c r="AB4">
+        <v>90</v>
+      </c>
+      <c r="AC4">
+        <v>102</v>
+      </c>
+      <c r="AD4">
+        <v>124</v>
+      </c>
+      <c r="AE4">
+        <v>118</v>
+      </c>
+      <c r="AF4">
+        <v>150</v>
+      </c>
+      <c r="AG4">
+        <v>151</v>
+      </c>
+      <c r="AH4">
+        <v>322</v>
+      </c>
+      <c r="AI4">
+        <v>273</v>
+      </c>
+      <c r="AJ4">
+        <v>158</v>
+      </c>
+      <c r="AK4" s="2">
+        <v>136</v>
+      </c>
+      <c r="AL4" s="2">
+        <v>67</v>
+      </c>
+      <c r="AM4" s="2">
+        <v>71</v>
+      </c>
+      <c r="AN4" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO4" s="2">
+        <v>78</v>
+      </c>
+      <c r="AP4" s="2">
+        <v>60</v>
+      </c>
+      <c r="AQ4" s="2">
+        <v>55</v>
+      </c>
+      <c r="AR4" s="2">
+        <v>26</v>
+      </c>
+      <c r="AS4" s="2">
+        <v>12</v>
+      </c>
+      <c r="AT4" s="2">
+        <v>11</v>
+      </c>
+      <c r="AU4" s="2">
+        <v>14</v>
+      </c>
+      <c r="AV4" s="2">
+        <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="D5">
-        <v>43.305999999999997</v>
+        <v>31</v>
       </c>
       <c r="E5">
-        <v>34.622999999999998</v>
+        <v>756</v>
       </c>
       <c r="F5">
-        <v>41.225999999999999</v>
+        <v>1609</v>
       </c>
       <c r="G5">
-        <v>48.347000000000001</v>
+        <v>3300</v>
       </c>
       <c r="H5">
-        <v>51.674999999999997</v>
+        <v>1019</v>
       </c>
       <c r="I5">
-        <v>45.77</v>
+        <v>6259</v>
       </c>
       <c r="J5">
-        <v>47.244999999999997</v>
+        <v>1998</v>
       </c>
       <c r="K5">
-        <v>40.726999999999997</v>
+        <v>3906</v>
       </c>
       <c r="L5">
-        <v>46.697000000000003</v>
+        <v>5295</v>
       </c>
       <c r="M5">
-        <v>37.351999999999997</v>
+        <v>5579</v>
       </c>
       <c r="N5">
-        <v>47.83</v>
+        <v>3949</v>
       </c>
       <c r="O5">
-        <v>35.412999999999997</v>
+        <v>2438</v>
+      </c>
+      <c r="P5">
+        <v>2773</v>
+      </c>
+      <c r="Q5">
+        <v>626</v>
+      </c>
+      <c r="R5">
+        <v>1929</v>
+      </c>
+      <c r="S5">
+        <v>841</v>
+      </c>
+      <c r="T5">
+        <v>3041</v>
+      </c>
+      <c r="U5">
+        <v>5488</v>
+      </c>
+      <c r="V5">
+        <v>1732</v>
+      </c>
+      <c r="W5">
+        <v>2517</v>
+      </c>
+      <c r="X5">
+        <v>1665</v>
+      </c>
+      <c r="Y5">
+        <v>1399</v>
+      </c>
+      <c r="Z5">
+        <v>1878</v>
+      </c>
+      <c r="AA5">
+        <v>96</v>
+      </c>
+      <c r="AB5">
+        <v>1884</v>
+      </c>
+      <c r="AC5">
+        <v>2469</v>
+      </c>
+      <c r="AD5">
+        <v>2760</v>
+      </c>
+      <c r="AE5">
+        <v>4984</v>
+      </c>
+      <c r="AF5">
+        <v>3638</v>
+      </c>
+      <c r="AG5">
+        <v>5089</v>
+      </c>
+      <c r="AH5">
+        <v>2192</v>
+      </c>
+      <c r="AI5">
+        <v>2684</v>
+      </c>
+      <c r="AJ5">
+        <v>414</v>
+      </c>
+      <c r="AK5" s="2">
+        <v>1166</v>
+      </c>
+      <c r="AL5" s="2">
+        <v>257</v>
+      </c>
+      <c r="AM5" s="2">
+        <v>374</v>
+      </c>
+      <c r="AN5" s="2">
+        <v>316</v>
+      </c>
+      <c r="AO5" s="2">
+        <v>88</v>
+      </c>
+      <c r="AP5" s="2">
+        <v>55</v>
+      </c>
+      <c r="AQ5" s="2">
+        <v>171</v>
+      </c>
+      <c r="AR5" s="2">
+        <v>65</v>
+      </c>
+      <c r="AS5" s="2">
+        <v>64</v>
+      </c>
+      <c r="AT5" s="2">
+        <v>51</v>
+      </c>
+      <c r="AU5" s="2">
+        <v>59</v>
+      </c>
+      <c r="AV5" s="2">
+        <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>22.77</v>
+        <v>1555</v>
       </c>
       <c r="E6">
-        <v>18.765999999999998</v>
+        <v>2061</v>
       </c>
       <c r="F6">
-        <v>12.007</v>
+        <v>2473</v>
       </c>
       <c r="G6">
-        <v>16.957999999999998</v>
+        <v>3789</v>
       </c>
       <c r="H6">
-        <v>18.896999999999998</v>
+        <v>694</v>
       </c>
       <c r="I6">
-        <v>17.637</v>
+        <v>1837</v>
       </c>
       <c r="J6">
-        <v>18.670000000000002</v>
+        <v>1521</v>
       </c>
       <c r="K6">
-        <v>23.706</v>
+        <v>480</v>
       </c>
       <c r="L6">
-        <v>21.638000000000002</v>
+        <v>1423</v>
       </c>
       <c r="M6">
-        <v>13.212999999999999</v>
+        <v>2337</v>
       </c>
       <c r="N6">
-        <v>16.949000000000002</v>
+        <v>2634</v>
       </c>
       <c r="O6">
-        <v>19.978000000000002</v>
+        <v>1898</v>
+      </c>
+      <c r="P6">
+        <v>1502</v>
+      </c>
+      <c r="Q6">
+        <v>2359</v>
+      </c>
+      <c r="R6">
+        <v>3466</v>
+      </c>
+      <c r="S6">
+        <v>5828</v>
+      </c>
+      <c r="T6">
+        <v>4821</v>
+      </c>
+      <c r="U6">
+        <v>5011</v>
+      </c>
+      <c r="V6">
+        <v>4713</v>
+      </c>
+      <c r="W6">
+        <v>3973</v>
+      </c>
+      <c r="X6">
+        <v>2956</v>
+      </c>
+      <c r="Y6">
+        <v>1890</v>
+      </c>
+      <c r="Z6">
+        <v>1513</v>
+      </c>
+      <c r="AA6">
+        <v>1649</v>
+      </c>
+      <c r="AB6">
+        <v>1757</v>
+      </c>
+      <c r="AC6">
+        <v>1720</v>
+      </c>
+      <c r="AD6">
+        <v>3365</v>
+      </c>
+      <c r="AE6">
+        <v>3929</v>
+      </c>
+      <c r="AF6">
+        <v>4055</v>
+      </c>
+      <c r="AG6">
+        <v>2457</v>
+      </c>
+      <c r="AH6">
+        <v>2994</v>
+      </c>
+      <c r="AI6">
+        <v>2304</v>
+      </c>
+      <c r="AJ6">
+        <v>2980</v>
+      </c>
+      <c r="AK6" s="2">
+        <v>1043</v>
+      </c>
+      <c r="AL6" s="2">
+        <v>1577</v>
+      </c>
+      <c r="AM6" s="2">
+        <v>222</v>
+      </c>
+      <c r="AN6" s="2">
+        <v>500</v>
+      </c>
+      <c r="AO6" s="2">
+        <v>1612</v>
+      </c>
+      <c r="AP6" s="2">
+        <v>2169</v>
+      </c>
+      <c r="AQ6" s="2">
+        <v>2308</v>
+      </c>
+      <c r="AR6" s="2">
+        <v>169</v>
+      </c>
+      <c r="AS6" s="2">
+        <v>1087</v>
+      </c>
+      <c r="AT6" s="2">
+        <v>162</v>
+      </c>
+      <c r="AU6" s="2">
+        <v>67</v>
+      </c>
+      <c r="AV6" s="2">
+        <v>197</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D7">
-        <v>3.4609999999999999</v>
+        <v>2424</v>
       </c>
       <c r="E7">
-        <v>3.65</v>
+        <v>12650</v>
       </c>
       <c r="F7">
-        <v>2.6909999999999998</v>
+        <v>7565</v>
       </c>
       <c r="G7">
-        <v>1.821</v>
+        <v>10691</v>
       </c>
       <c r="H7">
-        <v>2.512</v>
+        <v>1611</v>
       </c>
       <c r="I7">
-        <v>1.86</v>
+        <v>2344</v>
       </c>
       <c r="J7">
-        <v>1.9</v>
+        <v>2426</v>
       </c>
       <c r="K7">
-        <v>2.3769999999999998</v>
+        <v>1285</v>
       </c>
       <c r="L7">
-        <v>2.4409999999999998</v>
+        <v>3721</v>
       </c>
       <c r="M7">
-        <v>1.8480000000000001</v>
+        <v>7005</v>
       </c>
       <c r="N7">
-        <v>2.6110000000000002</v>
+        <v>6856</v>
       </c>
       <c r="O7">
-        <v>3.044</v>
+        <v>2335</v>
+      </c>
+      <c r="P7">
+        <v>1507</v>
+      </c>
+      <c r="Q7">
+        <v>2076</v>
+      </c>
+      <c r="R7">
+        <v>4519</v>
+      </c>
+      <c r="S7">
+        <v>4311</v>
+      </c>
+      <c r="T7">
+        <v>7931</v>
+      </c>
+      <c r="U7">
+        <v>10020</v>
+      </c>
+      <c r="V7">
+        <v>9679</v>
+      </c>
+      <c r="W7">
+        <v>7091</v>
+      </c>
+      <c r="X7">
+        <v>3872</v>
+      </c>
+      <c r="Y7">
+        <v>1813</v>
+      </c>
+      <c r="Z7">
+        <v>4403</v>
+      </c>
+      <c r="AA7">
+        <v>4361</v>
+      </c>
+      <c r="AB7">
+        <v>5616</v>
+      </c>
+      <c r="AC7">
+        <v>8534</v>
+      </c>
+      <c r="AD7">
+        <v>4074</v>
+      </c>
+      <c r="AE7">
+        <v>3768</v>
+      </c>
+      <c r="AF7">
+        <v>7193</v>
+      </c>
+      <c r="AG7">
+        <v>5743</v>
+      </c>
+      <c r="AH7">
+        <v>7604</v>
+      </c>
+      <c r="AI7">
+        <v>10473</v>
+      </c>
+      <c r="AJ7">
+        <v>6806</v>
+      </c>
+      <c r="AK7" s="2">
+        <v>3399</v>
+      </c>
+      <c r="AL7" s="2">
+        <v>4426</v>
+      </c>
+      <c r="AM7" s="2">
+        <v>7668</v>
+      </c>
+      <c r="AN7" s="2">
+        <v>6354</v>
+      </c>
+      <c r="AO7" s="2">
+        <v>4995</v>
+      </c>
+      <c r="AP7" s="2">
+        <v>1978</v>
+      </c>
+      <c r="AQ7" s="2">
+        <v>4322</v>
+      </c>
+      <c r="AR7" s="2">
+        <v>1841</v>
+      </c>
+      <c r="AS7" s="2">
+        <v>2542</v>
+      </c>
+      <c r="AT7" s="2">
+        <v>2191</v>
+      </c>
+      <c r="AU7" s="2">
+        <v>1308</v>
+      </c>
+      <c r="AV7" s="2">
+        <v>3587</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D8">
-        <v>500</v>
+        <v>10292</v>
       </c>
       <c r="E8">
-        <v>734</v>
+        <v>10885</v>
       </c>
       <c r="F8">
-        <v>1.05</v>
+        <v>11119</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>9192</v>
       </c>
       <c r="H8">
-        <v>279</v>
+        <v>6942</v>
       </c>
       <c r="I8">
-        <v>25</v>
+        <v>13522</v>
       </c>
       <c r="J8">
-        <v>19</v>
+        <v>21616</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>13371</v>
       </c>
       <c r="L8">
-        <v>14</v>
+        <v>14332</v>
       </c>
       <c r="M8">
-        <v>77</v>
+        <v>22446</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>22783</v>
       </c>
       <c r="O8">
-        <v>8</v>
+        <v>15971</v>
+      </c>
+      <c r="P8">
+        <v>14043</v>
+      </c>
+      <c r="Q8">
+        <v>15382</v>
+      </c>
+      <c r="R8">
+        <v>16223</v>
+      </c>
+      <c r="S8">
+        <v>13944</v>
+      </c>
+      <c r="T8">
+        <v>16349</v>
+      </c>
+      <c r="U8">
+        <v>17375</v>
+      </c>
+      <c r="V8">
+        <v>15841</v>
+      </c>
+      <c r="W8">
+        <v>16853</v>
+      </c>
+      <c r="X8">
+        <v>13575</v>
+      </c>
+      <c r="Y8">
+        <v>13797</v>
+      </c>
+      <c r="Z8">
+        <v>20979</v>
+      </c>
+      <c r="AA8">
+        <v>13028</v>
+      </c>
+      <c r="AB8">
+        <v>18713</v>
+      </c>
+      <c r="AC8">
+        <v>16964</v>
+      </c>
+      <c r="AD8">
+        <v>18273</v>
+      </c>
+      <c r="AE8">
+        <v>13671</v>
+      </c>
+      <c r="AF8">
+        <v>23694</v>
+      </c>
+      <c r="AG8">
+        <v>24751</v>
+      </c>
+      <c r="AH8">
+        <v>23834</v>
+      </c>
+      <c r="AI8">
+        <v>20315</v>
+      </c>
+      <c r="AJ8">
+        <v>26966</v>
+      </c>
+      <c r="AK8" s="2">
+        <v>23377</v>
+      </c>
+      <c r="AL8" s="2">
+        <v>17607</v>
+      </c>
+      <c r="AM8" s="2">
+        <v>17124</v>
+      </c>
+      <c r="AN8" s="2">
+        <v>18661</v>
+      </c>
+      <c r="AO8" s="2">
+        <v>19449</v>
+      </c>
+      <c r="AP8" s="2">
+        <v>18155</v>
+      </c>
+      <c r="AQ8" s="2">
+        <v>17553</v>
+      </c>
+      <c r="AR8" s="2">
+        <v>15168</v>
+      </c>
+      <c r="AS8" s="2">
+        <v>17945</v>
+      </c>
+      <c r="AT8" s="2">
+        <v>21705</v>
+      </c>
+      <c r="AU8" s="2">
+        <v>25854</v>
+      </c>
+      <c r="AV8" s="2">
+        <v>38691</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
       <c r="B9">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D9">
-        <v>24</v>
+        <v>44123</v>
       </c>
       <c r="E9">
-        <v>16</v>
+        <v>45105</v>
       </c>
       <c r="F9">
-        <v>14</v>
+        <v>40424</v>
       </c>
       <c r="G9">
-        <v>14</v>
+        <v>32327</v>
       </c>
       <c r="H9">
-        <v>23</v>
+        <v>28457</v>
       </c>
       <c r="I9">
-        <v>51</v>
+        <v>31306</v>
       </c>
       <c r="J9">
-        <v>10</v>
+        <v>41546</v>
       </c>
       <c r="K9">
-        <v>11</v>
+        <v>32754</v>
       </c>
       <c r="L9">
-        <v>10</v>
+        <v>30653</v>
       </c>
       <c r="M9">
-        <v>33</v>
+        <v>26824</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>30207</v>
       </c>
       <c r="O9">
-        <v>15</v>
+        <v>20864</v>
+      </c>
+      <c r="P9">
+        <v>23729</v>
+      </c>
+      <c r="Q9">
+        <v>30445</v>
+      </c>
+      <c r="R9">
+        <v>35329</v>
+      </c>
+      <c r="S9">
+        <v>44795</v>
+      </c>
+      <c r="T9">
+        <v>46191</v>
+      </c>
+      <c r="U9">
+        <v>49167</v>
+      </c>
+      <c r="V9">
+        <v>50370</v>
+      </c>
+      <c r="W9">
+        <v>47484</v>
+      </c>
+      <c r="X9">
+        <v>43583</v>
+      </c>
+      <c r="Y9">
+        <v>41722</v>
+      </c>
+      <c r="Z9">
+        <v>26322</v>
+      </c>
+      <c r="AA9">
+        <v>41492</v>
+      </c>
+      <c r="AB9">
+        <v>51530</v>
+      </c>
+      <c r="AC9">
+        <v>43916</v>
+      </c>
+      <c r="AD9">
+        <v>32294</v>
+      </c>
+      <c r="AE9">
+        <v>33509</v>
+      </c>
+      <c r="AF9">
+        <v>44018</v>
+      </c>
+      <c r="AG9">
+        <v>42677</v>
+      </c>
+      <c r="AH9">
+        <v>37837</v>
+      </c>
+      <c r="AI9">
+        <v>37552</v>
+      </c>
+      <c r="AJ9">
+        <v>39582</v>
+      </c>
+      <c r="AK9" s="2">
+        <v>43306</v>
+      </c>
+      <c r="AL9" s="2">
+        <v>34623</v>
+      </c>
+      <c r="AM9" s="2">
+        <v>41226</v>
+      </c>
+      <c r="AN9" s="2">
+        <v>48347</v>
+      </c>
+      <c r="AO9" s="2">
+        <v>51675</v>
+      </c>
+      <c r="AP9" s="2">
+        <v>4577</v>
+      </c>
+      <c r="AQ9" s="2">
+        <v>47245</v>
+      </c>
+      <c r="AR9" s="2">
+        <v>40727</v>
+      </c>
+      <c r="AS9" s="2">
+        <v>46697</v>
+      </c>
+      <c r="AT9" s="2">
+        <v>37352</v>
+      </c>
+      <c r="AU9" s="2">
+        <v>4783</v>
+      </c>
+      <c r="AV9" s="2">
+        <v>35413</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D10">
-        <v>32</v>
+        <v>11115</v>
       </c>
       <c r="E10">
-        <v>354</v>
+        <v>17950</v>
       </c>
       <c r="F10">
-        <v>171</v>
+        <v>13358</v>
       </c>
       <c r="G10">
-        <v>381</v>
+        <v>8794</v>
       </c>
       <c r="H10">
-        <v>413</v>
+        <v>6436</v>
       </c>
       <c r="I10">
-        <v>233</v>
+        <v>9959</v>
       </c>
       <c r="J10">
-        <v>160</v>
+        <v>16393</v>
       </c>
       <c r="K10">
-        <v>320</v>
+        <v>13170</v>
       </c>
       <c r="L10">
-        <v>140</v>
+        <v>14786</v>
       </c>
       <c r="M10">
-        <v>484</v>
+        <v>17987</v>
       </c>
       <c r="N10">
-        <v>272</v>
+        <v>18890</v>
       </c>
       <c r="O10">
-        <v>111</v>
+        <v>14885</v>
+      </c>
+      <c r="P10">
+        <v>13286</v>
+      </c>
+      <c r="Q10">
+        <v>12522</v>
+      </c>
+      <c r="R10">
+        <v>15812</v>
+      </c>
+      <c r="S10">
+        <v>10495</v>
+      </c>
+      <c r="T10">
+        <v>22725</v>
+      </c>
+      <c r="U10">
+        <v>24735</v>
+      </c>
+      <c r="V10">
+        <v>20826</v>
+      </c>
+      <c r="W10">
+        <v>10978</v>
+      </c>
+      <c r="X10">
+        <v>21119</v>
+      </c>
+      <c r="Y10">
+        <v>7060</v>
+      </c>
+      <c r="Z10">
+        <v>14456</v>
+      </c>
+      <c r="AA10">
+        <v>10647</v>
+      </c>
+      <c r="AB10">
+        <v>13803</v>
+      </c>
+      <c r="AC10">
+        <v>14563</v>
+      </c>
+      <c r="AD10">
+        <v>21157</v>
+      </c>
+      <c r="AE10">
+        <v>15284</v>
+      </c>
+      <c r="AF10">
+        <v>22500</v>
+      </c>
+      <c r="AG10">
+        <v>33135</v>
+      </c>
+      <c r="AH10">
+        <v>43060</v>
+      </c>
+      <c r="AI10">
+        <v>32070</v>
+      </c>
+      <c r="AJ10">
+        <v>21564</v>
+      </c>
+      <c r="AK10" s="2">
+        <v>2277</v>
+      </c>
+      <c r="AL10" s="2">
+        <v>18766</v>
+      </c>
+      <c r="AM10" s="2">
+        <v>12007</v>
+      </c>
+      <c r="AN10" s="2">
+        <v>16958</v>
+      </c>
+      <c r="AO10" s="2">
+        <v>18897</v>
+      </c>
+      <c r="AP10" s="2">
+        <v>17637</v>
+      </c>
+      <c r="AQ10" s="2">
+        <v>1867</v>
+      </c>
+      <c r="AR10" s="2">
+        <v>23706</v>
+      </c>
+      <c r="AS10" s="2">
+        <v>21638</v>
+      </c>
+      <c r="AT10" s="2">
+        <v>13213</v>
+      </c>
+      <c r="AU10" s="2">
+        <v>16949</v>
+      </c>
+      <c r="AV10" s="2">
+        <v>19978</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="B11">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D11">
-        <v>6.8150000000000004</v>
+        <v>7613</v>
       </c>
       <c r="E11">
-        <v>7.3490000000000002</v>
+        <v>13544</v>
       </c>
       <c r="F11">
-        <v>7.3079999999999998</v>
+        <v>12353</v>
       </c>
       <c r="G11">
-        <v>6.4340000000000002</v>
+        <v>6686</v>
       </c>
       <c r="H11">
-        <v>3.4910000000000001</v>
+        <v>5245</v>
       </c>
       <c r="I11">
-        <v>7.298</v>
+        <v>4176</v>
       </c>
       <c r="J11">
-        <v>6.508</v>
+        <v>6743</v>
       </c>
       <c r="K11">
-        <v>6.1349999999999998</v>
+        <v>3085</v>
       </c>
       <c r="L11">
-        <v>5.835</v>
+        <v>4234</v>
       </c>
       <c r="M11">
-        <v>5.9459999999999997</v>
+        <v>8370</v>
       </c>
       <c r="N11">
-        <v>5.8410000000000002</v>
+        <v>8642</v>
       </c>
       <c r="O11">
-        <v>7.4640000000000004</v>
+        <v>7048</v>
+      </c>
+      <c r="P11">
+        <v>7490</v>
+      </c>
+      <c r="Q11">
+        <v>8724</v>
+      </c>
+      <c r="R11">
+        <v>8986</v>
+      </c>
+      <c r="S11">
+        <v>13183</v>
+      </c>
+      <c r="T11">
+        <v>15587</v>
+      </c>
+      <c r="U11">
+        <v>16322</v>
+      </c>
+      <c r="V11">
+        <v>17185</v>
+      </c>
+      <c r="W11">
+        <v>17757</v>
+      </c>
+      <c r="X11">
+        <v>9834</v>
+      </c>
+      <c r="Y11">
+        <v>8489</v>
+      </c>
+      <c r="Z11">
+        <v>7539</v>
+      </c>
+      <c r="AA11">
+        <v>12736</v>
+      </c>
+      <c r="AB11">
+        <v>12092</v>
+      </c>
+      <c r="AC11">
+        <v>12078</v>
+      </c>
+      <c r="AD11">
+        <v>10012</v>
+      </c>
+      <c r="AE11">
+        <v>9661</v>
+      </c>
+      <c r="AF11">
+        <v>11159</v>
+      </c>
+      <c r="AG11">
+        <v>12620</v>
+      </c>
+      <c r="AH11">
+        <v>12809</v>
+      </c>
+      <c r="AI11">
+        <v>13280</v>
+      </c>
+      <c r="AJ11">
+        <v>7295</v>
+      </c>
+      <c r="AK11" s="2">
+        <v>3461</v>
+      </c>
+      <c r="AL11" s="2">
+        <v>365</v>
+      </c>
+      <c r="AM11" s="2">
+        <v>2691</v>
+      </c>
+      <c r="AN11" s="2">
+        <v>1821</v>
+      </c>
+      <c r="AO11" s="2">
+        <v>2512</v>
+      </c>
+      <c r="AP11" s="2">
+        <v>186</v>
+      </c>
+      <c r="AQ11" s="2">
+        <v>19</v>
+      </c>
+      <c r="AR11" s="2">
+        <v>2377</v>
+      </c>
+      <c r="AS11" s="2">
+        <v>2441</v>
+      </c>
+      <c r="AT11" s="2">
+        <v>1848</v>
+      </c>
+      <c r="AU11" s="2">
+        <v>2611</v>
+      </c>
+      <c r="AV11" s="2">
+        <v>3044</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
       <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>4205</v>
+      </c>
+      <c r="E12">
+        <v>1861</v>
+      </c>
+      <c r="F12">
+        <v>1310</v>
+      </c>
+      <c r="G12">
+        <v>1336</v>
+      </c>
+      <c r="H12">
+        <v>1481</v>
+      </c>
+      <c r="I12">
+        <v>907</v>
+      </c>
+      <c r="J12">
+        <v>362</v>
+      </c>
+      <c r="K12">
+        <v>427</v>
+      </c>
+      <c r="L12">
+        <v>821</v>
+      </c>
+      <c r="M12">
+        <v>1232</v>
+      </c>
+      <c r="N12">
+        <v>1021</v>
+      </c>
+      <c r="O12">
+        <v>583</v>
+      </c>
+      <c r="P12">
+        <v>1032</v>
+      </c>
+      <c r="Q12">
+        <v>262</v>
+      </c>
+      <c r="R12">
+        <v>362</v>
+      </c>
+      <c r="S12">
+        <v>457</v>
+      </c>
+      <c r="T12">
+        <v>391</v>
+      </c>
+      <c r="U12">
+        <v>746</v>
+      </c>
+      <c r="V12">
+        <v>1701</v>
+      </c>
+      <c r="W12">
+        <v>1987</v>
+      </c>
+      <c r="X12">
+        <v>2059</v>
+      </c>
+      <c r="Y12">
+        <v>860</v>
+      </c>
+      <c r="Z12">
+        <v>1802</v>
+      </c>
+      <c r="AA12">
+        <v>1658</v>
+      </c>
+      <c r="AB12">
+        <v>1809</v>
+      </c>
+      <c r="AC12">
+        <v>1474</v>
+      </c>
+      <c r="AD12">
+        <v>2451</v>
+      </c>
+      <c r="AE12">
+        <v>2600</v>
+      </c>
+      <c r="AF12">
+        <v>2929</v>
+      </c>
+      <c r="AG12">
+        <v>3594</v>
+      </c>
+      <c r="AH12">
+        <v>2821</v>
+      </c>
+      <c r="AI12">
+        <v>2547</v>
+      </c>
+      <c r="AJ12">
+        <v>2298</v>
+      </c>
+      <c r="AK12" s="2">
+        <v>500</v>
+      </c>
+      <c r="AL12" s="2">
+        <v>734</v>
+      </c>
+      <c r="AM12" s="2">
+        <v>105</v>
+      </c>
+      <c r="AN12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="2">
+        <v>279</v>
+      </c>
+      <c r="AP12" s="2">
+        <v>25</v>
+      </c>
+      <c r="AQ12" s="2">
+        <v>19</v>
+      </c>
+      <c r="AR12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS12" s="2">
+        <v>14</v>
+      </c>
+      <c r="AT12" s="2">
+        <v>77</v>
+      </c>
+      <c r="AU12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV12" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>11</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>40</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>5</v>
+      </c>
+      <c r="W13">
+        <v>12</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>10</v>
+      </c>
+      <c r="Z13">
+        <v>19</v>
+      </c>
+      <c r="AA13">
+        <v>10</v>
+      </c>
+      <c r="AB13">
+        <v>10</v>
+      </c>
+      <c r="AC13">
+        <v>12</v>
+      </c>
+      <c r="AD13">
         <v>16</v>
       </c>
-      <c r="C12" t="s">
+      <c r="AE13">
+        <v>11</v>
+      </c>
+      <c r="AF13">
+        <v>33</v>
+      </c>
+      <c r="AG13">
+        <v>28</v>
+      </c>
+      <c r="AH13">
+        <v>44</v>
+      </c>
+      <c r="AI13">
+        <v>30</v>
+      </c>
+      <c r="AJ13">
+        <v>35</v>
+      </c>
+      <c r="AK13" s="2">
+        <v>24</v>
+      </c>
+      <c r="AL13" s="2">
+        <v>16</v>
+      </c>
+      <c r="AM13" s="2">
+        <v>14</v>
+      </c>
+      <c r="AN13" s="2">
+        <v>14</v>
+      </c>
+      <c r="AO13" s="2">
+        <v>23</v>
+      </c>
+      <c r="AP13" s="2">
+        <v>51</v>
+      </c>
+      <c r="AQ13" s="2">
+        <v>10</v>
+      </c>
+      <c r="AR13" s="2">
+        <v>11</v>
+      </c>
+      <c r="AS13" s="2">
+        <v>10</v>
+      </c>
+      <c r="AT13" s="2">
+        <v>33</v>
+      </c>
+      <c r="AU13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV13" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>1121</v>
+      </c>
+      <c r="E14">
+        <v>2963</v>
+      </c>
+      <c r="F14">
+        <v>2961</v>
+      </c>
+      <c r="G14">
+        <v>1245</v>
+      </c>
+      <c r="H14">
+        <v>341</v>
+      </c>
+      <c r="I14">
+        <v>1804</v>
+      </c>
+      <c r="J14">
+        <v>176</v>
+      </c>
+      <c r="K14">
+        <v>83</v>
+      </c>
+      <c r="L14">
+        <v>669</v>
+      </c>
+      <c r="M14">
+        <v>1415</v>
+      </c>
+      <c r="N14">
+        <v>726</v>
+      </c>
+      <c r="O14">
+        <v>122</v>
+      </c>
+      <c r="P14">
+        <v>65</v>
+      </c>
+      <c r="Q14">
+        <v>75</v>
+      </c>
+      <c r="R14">
+        <v>64</v>
+      </c>
+      <c r="S14">
+        <v>151</v>
+      </c>
+      <c r="T14">
+        <v>328</v>
+      </c>
+      <c r="U14">
+        <v>1382</v>
+      </c>
+      <c r="V14">
+        <v>2470</v>
+      </c>
+      <c r="W14">
+        <v>859</v>
+      </c>
+      <c r="X14">
+        <v>1037</v>
+      </c>
+      <c r="Y14">
+        <v>1396</v>
+      </c>
+      <c r="Z14">
+        <v>434</v>
+      </c>
+      <c r="AA14">
+        <v>651</v>
+      </c>
+      <c r="AB14">
+        <v>901</v>
+      </c>
+      <c r="AC14">
+        <v>468</v>
+      </c>
+      <c r="AD14">
+        <v>151</v>
+      </c>
+      <c r="AE14">
+        <v>449</v>
+      </c>
+      <c r="AF14">
+        <v>33</v>
+      </c>
+      <c r="AG14">
+        <v>264</v>
+      </c>
+      <c r="AH14">
+        <v>152</v>
+      </c>
+      <c r="AI14">
+        <v>405</v>
+      </c>
+      <c r="AJ14">
+        <v>318</v>
+      </c>
+      <c r="AK14" s="2">
+        <v>32</v>
+      </c>
+      <c r="AL14" s="2">
+        <v>354</v>
+      </c>
+      <c r="AM14" s="2">
+        <v>171</v>
+      </c>
+      <c r="AN14" s="2">
+        <v>381</v>
+      </c>
+      <c r="AO14" s="2">
+        <v>413</v>
+      </c>
+      <c r="AP14" s="2">
+        <v>233</v>
+      </c>
+      <c r="AQ14" s="2">
+        <v>160</v>
+      </c>
+      <c r="AR14" s="2">
+        <v>320</v>
+      </c>
+      <c r="AS14" s="2">
+        <v>140</v>
+      </c>
+      <c r="AT14" s="2">
+        <v>484</v>
+      </c>
+      <c r="AU14" s="2">
+        <v>272</v>
+      </c>
+      <c r="AV14" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>7015</v>
+      </c>
+      <c r="AK15" s="2">
+        <v>6815</v>
+      </c>
+      <c r="AL15" s="2">
+        <v>7349</v>
+      </c>
+      <c r="AM15" s="2">
+        <v>7308</v>
+      </c>
+      <c r="AN15" s="2">
+        <v>6434</v>
+      </c>
+      <c r="AO15" s="2">
+        <v>3491</v>
+      </c>
+      <c r="AP15" s="2">
+        <v>7298</v>
+      </c>
+      <c r="AQ15" s="2">
+        <v>6508</v>
+      </c>
+      <c r="AR15" s="2">
+        <v>6135</v>
+      </c>
+      <c r="AS15" s="2">
+        <v>5835</v>
+      </c>
+      <c r="AT15" s="2">
+        <v>5946</v>
+      </c>
+      <c r="AU15" s="2">
+        <v>5841</v>
+      </c>
+      <c r="AV15" s="2">
+        <v>7464</v>
+      </c>
+    </row>
+    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <v>31</v>
+      </c>
+      <c r="AK16" s="2">
+        <v>24</v>
+      </c>
+      <c r="AL16" s="2">
+        <v>10</v>
+      </c>
+      <c r="AM16" s="2">
+        <v>10</v>
+      </c>
+      <c r="AN16" s="2">
+        <v>26</v>
+      </c>
+      <c r="AO16" s="2">
+        <v>29</v>
+      </c>
+      <c r="AP16" s="2">
+        <v>29</v>
+      </c>
+      <c r="AQ16" s="2">
+        <v>26</v>
+      </c>
+      <c r="AR16" s="2">
+        <v>14</v>
+      </c>
+      <c r="AS16" s="2">
+        <v>14</v>
+      </c>
+      <c r="AT16" s="2">
+        <v>12</v>
+      </c>
+      <c r="AU16" s="2">
+        <v>13</v>
+      </c>
+      <c r="AV16" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
         <v>7</v>
       </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>18.398</v>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV17" s="2">
+        <v>18398</v>
       </c>
     </row>
   </sheetData>
@@ -1666,7 +3776,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1749,7 +3859,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="K2" s="1">
         <v>44321</v>

--- a/Silvicultura/18.1.xlsx
+++ b/Silvicultura/18.1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\Tablas Madre\Silvicultura\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Silvicultura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE3ACCF9-4350-446E-8FEF-30F8E8B49AA2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28CFBAAD-B095-4891-8908-982237251367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -839,7 +839,7 @@
   </cellStyles>
   <dxfs count="13">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -875,7 +875,7 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -930,18 +930,18 @@
     <tableColumn id="25" xr3:uid="{5436B041-7067-4099-929A-4237FBF837E7}" name="2005"/>
     <tableColumn id="26" xr3:uid="{165683F2-847D-4760-9077-E14AF5BED7B3}" name="2006"/>
     <tableColumn id="27" xr3:uid="{829CA16C-AB0A-4148-B633-2D6C2CCF6370}" name="2007"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="2008" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="2009" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="2010" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="2011" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="2012" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="2013" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="2014" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="2015" dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="2016" dataDxfId="3"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="2017" dataDxfId="2"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="2018" dataDxfId="1"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="2019" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="2008" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="2009" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="2010" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="2011" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="2012" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="2013" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="2014" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="2015" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="2016" dataDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="2017" dataDxfId="3"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="2018" dataDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="2019" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -961,7 +961,7 @@
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="ISO país"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Nivel administrativo"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Descripción larga"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Fecha" dataDxfId="12"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Fecha" dataDxfId="0"/>
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Unidad"/>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="Responsable"/>
   </tableColumns>
@@ -1269,7 +1269,7 @@
   <dimension ref="A1:AV17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AQ7" sqref="AQ7"/>
+      <selection activeCell="AM8" sqref="AM8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3776,7 +3776,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
